--- a/Section.5.1/Agnostic_SnomedJan17_TrOWL/regression/DataExecution.xlsx
+++ b/Section.5.1/Agnostic_SnomedJan17_TrOWL/regression/DataExecution.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r01ig15\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r01ig15\Google Drive\UoA\ISWC2017\11Experiments\20170501 ExtractorExtended TrOWL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="25620" windowHeight="17565" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="25620" windowHeight="17565" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1sp" sheetId="1" r:id="rId1"/>
@@ -1532,7 +1532,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1566,32 +1566,32 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B3" s="1">
-        <v>41538</v>
+        <v>25282</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="B4" s="1">
-        <v>57188</v>
+        <v>24822</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="B5" s="1">
-        <v>61569</v>
+        <v>41538</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1599,32 +1599,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="B6" s="1">
-        <v>79599</v>
+        <v>41453</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="B7" s="1">
-        <v>85696</v>
+        <v>36414</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="B8" s="1">
-        <v>97529</v>
+        <v>57188</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1632,32 +1632,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="B9" s="1">
-        <v>105450</v>
+        <v>52043</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9000</v>
+        <v>3000</v>
       </c>
       <c r="B10" s="1">
-        <v>116759</v>
+        <v>50649</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="B11" s="1">
-        <v>123440</v>
+        <v>61569</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1665,32 +1665,32 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>15000</v>
+        <v>4000</v>
       </c>
       <c r="B12" s="1">
-        <v>174292</v>
+        <v>63481</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>20000</v>
+        <v>4000</v>
       </c>
       <c r="B13" s="1">
-        <v>225686</v>
+        <v>64181</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="B14" s="1">
-        <v>268548</v>
+        <v>79599</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -1698,32 +1698,32 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="B15" s="1">
-        <v>318659</v>
+        <v>72794</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="B16" s="1">
-        <v>357211</v>
+        <v>76374</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>40000</v>
+        <v>6000</v>
       </c>
       <c r="B17" s="1">
-        <v>402768</v>
+        <v>85696</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1731,43 +1731,43 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45000</v>
+        <v>6000</v>
       </c>
       <c r="B18" s="1">
-        <v>448048</v>
+        <v>81269</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="B19" s="1">
-        <v>25282</v>
+        <v>84573</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="B20" s="1">
-        <v>41453</v>
+        <v>97529</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="B21" s="1">
-        <v>52043</v>
+        <v>100425</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -1775,32 +1775,32 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="B22" s="1">
-        <v>63481</v>
+        <v>95922</v>
       </c>
       <c r="C22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="B23" s="1">
-        <v>72794</v>
+        <v>105450</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="B24" s="1">
-        <v>81269</v>
+        <v>106969</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -1808,24 +1808,24 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="B25" s="1">
-        <v>100425</v>
+        <v>110202</v>
       </c>
       <c r="C25" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="B26" s="1">
-        <v>106969</v>
+        <v>116759</v>
       </c>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,32 +1841,32 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="B28" s="1">
-        <v>130157</v>
+        <v>116856</v>
       </c>
       <c r="C28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="B29" s="1">
-        <v>175543</v>
+        <v>123440</v>
       </c>
       <c r="C29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="B30" s="1">
-        <v>223825</v>
+        <v>130157</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -1874,32 +1874,32 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="B31" s="1">
-        <v>270576</v>
+        <v>125476</v>
       </c>
       <c r="C31" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="B32" s="1">
-        <v>316266</v>
+        <v>174292</v>
       </c>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="B33" s="1">
-        <v>356855</v>
+        <v>175543</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
@@ -1907,43 +1907,43 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="B34" s="1">
-        <v>402981</v>
+        <v>176895</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45000</v>
+        <v>20000</v>
       </c>
       <c r="B35" s="1">
-        <v>447188</v>
+        <v>225686</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="B36" s="1">
-        <v>24822</v>
+        <v>223825</v>
       </c>
       <c r="C36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="B37" s="1">
-        <v>36414</v>
+        <v>226587</v>
       </c>
       <c r="C37" s="1">
         <v>3</v>
@@ -1951,32 +1951,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3000</v>
+        <v>25000</v>
       </c>
       <c r="B38" s="1">
-        <v>50649</v>
+        <v>268548</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>4000</v>
+        <v>25000</v>
       </c>
       <c r="B39" s="1">
-        <v>64181</v>
+        <v>270576</v>
       </c>
       <c r="C39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>5000</v>
+        <v>25000</v>
       </c>
       <c r="B40" s="1">
-        <v>76374</v>
+        <v>269709</v>
       </c>
       <c r="C40" s="1">
         <v>3</v>
@@ -1984,32 +1984,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>6000</v>
+        <v>30000</v>
       </c>
       <c r="B41" s="1">
-        <v>84573</v>
+        <v>318659</v>
       </c>
       <c r="C41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>7000</v>
+        <v>30000</v>
       </c>
       <c r="B42" s="1">
-        <v>95922</v>
+        <v>316266</v>
       </c>
       <c r="C42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="B43" s="1">
-        <v>110202</v>
+        <v>313703</v>
       </c>
       <c r="C43" s="1">
         <v>3</v>
@@ -2017,32 +2017,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>9000</v>
+        <v>35000</v>
       </c>
       <c r="B44" s="1">
-        <v>116856</v>
+        <v>357211</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="B45" s="1">
-        <v>125476</v>
+        <v>356855</v>
       </c>
       <c r="C45" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="B46" s="1">
-        <v>176895</v>
+        <v>356528</v>
       </c>
       <c r="C46" s="1">
         <v>3</v>
@@ -2050,32 +2050,32 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="B47" s="1">
-        <v>226587</v>
+        <v>402768</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="B48" s="1">
-        <v>269709</v>
+        <v>402981</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="B49" s="1">
-        <v>313703</v>
+        <v>403218</v>
       </c>
       <c r="C49" s="1">
         <v>3</v>
@@ -2083,24 +2083,24 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>35000</v>
+        <v>45000</v>
       </c>
       <c r="B50" s="1">
-        <v>356528</v>
+        <v>448048</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>40000</v>
+        <v>45000</v>
       </c>
       <c r="B51" s="1">
-        <v>403218</v>
+        <v>447188</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2115,6 +2115,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C52">
+    <sortCondition ref="A43"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
